--- a/SP_Sklad/TempLate/MatOutShort(2).xlsx
+++ b/SP_Sklad/TempLate/MatOutShort(2).xlsx
@@ -10,11 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Лист1!$A$12:$I$13</definedName>
-    <definedName name="sectionPrice">Лист1!$A$10:$I$14</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$I$14</definedName>
+    <definedName name="MatInDet">Лист1!#REF!</definedName>
+    <definedName name="MatOutDet">Лист1!$A$12:$I$13</definedName>
+    <definedName name="range1">Лист1!#REF!</definedName>
+    <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -68,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -506,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -515,9 +518,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -585,52 +585,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1003,11 +1003,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,210 +1025,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="2:11" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="32" t="e">
+      <c r="D3" s="31" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="e">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="2:11" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="e">
+      <c r="D5" s="31" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="32" t="e">
+      <c r="C6" s="36"/>
+      <c r="D6" s="31" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="e">
+      <c r="B11" s="48" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="e">
+      <c r="B12" s="28" t="e">
         <f>MatOutDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="50" t="e">
+      <c r="C12" s="51" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="39" t="e">
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="38" t="e">
         <f>MatOutDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="27" t="e">
+      <c r="G12" s="26" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="28" t="e">
+      <c r="H12" s="27" t="e">
         <f>IF(G12&gt;0,I12/G12," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="41" t="e">
+      <c r="I12" s="40" t="e">
         <f>MatOutDet_SUMPRICE</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="42" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="43"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
@@ -1246,11 +1246,11 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1262,48 +1262,29 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1381,31 +1362,16 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C8:E9"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
   </mergeCells>

--- a/SP_Sklad/TempLate/MatOutShort(2).xlsx
+++ b/SP_Sklad/TempLate/MatOutShort(2).xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$I$14</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$I$15</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!$A$12:$I$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sum</t>
   </si>
@@ -65,6 +65,9 @@
   <si>
     <t>СКОРОЧЕНИЙ ЗВІТ ПРО ВИДАТКИ ТОВАРІВ</t>
   </si>
+  <si>
+    <t>sum_Summ</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -509,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -529,13 +538,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -545,7 +550,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -584,7 +588,12 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,13 +609,19 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,20 +633,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,11 +1016,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,177 +1038,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="e">
+      <c r="D3" s="26" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="e">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="e">
+      <c r="D5" s="26" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="31" t="e">
+      <c r="C6" s="31"/>
+      <c r="D6" s="26" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="45"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="39"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="e">
+      <c r="B11" s="55" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="54"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="e">
+      <c r="B12" s="23" t="e">
         <f>MatOutDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="51" t="e">
+      <c r="C12" s="49" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="38" t="e">
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="33" t="e">
         <f>MatOutDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="26" t="e">
+      <c r="G12" s="21" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="27" t="e">
+      <c r="H12" s="22" t="e">
         <f>IF(G12&gt;0,I12/G12," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="40" t="e">
+      <c r="I12" s="35" t="e">
         <f>MatOutDet_SUMPRICE</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="41" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="36" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1205,75 +1218,66 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="17" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1282,7 +1286,17 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,13 +1376,15 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B11:I11"/>
+  <mergeCells count="11">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>

--- a/SP_Sklad/TempLate/MatOutShort(2).xlsx
+++ b/SP_Sklad/TempLate/MatOutShort(2).xlsx
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -92,21 +92,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -518,71 +503,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,60 +564,57 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,11 +986,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K103"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1038,358 +1008,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="e">
+      <c r="D3" s="20" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="e">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="e">
+      <c r="D5" s="20" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="26" t="e">
+      <c r="C6" s="25"/>
+      <c r="D6" s="20" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="e">
+      <c r="B11" s="47" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="54"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="e">
+      <c r="B12" s="17" t="e">
         <f>MatOutDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="49" t="e">
+      <c r="C12" s="42" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="33" t="e">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="27" t="e">
         <f>MatOutDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="21" t="e">
+      <c r="G12" s="15" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="22" t="e">
+      <c r="H12" s="16" t="e">
         <f>IF(G12&gt;0,I12/G12," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="35" t="e">
+      <c r="I12" s="29" t="e">
         <f>MatOutDet_SUMPRICE</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="36" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="38" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B11:H11"/>
+  <mergeCells count="10">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/MatOutShort(2).xlsx
+++ b/SP_Sklad/TempLate/MatOutShort(2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="780" windowWidth="14175" windowHeight="7260"/>
@@ -10,6 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$8:$I$13</definedName>
     <definedName name="MatGroup">Лист1!$A$10:$I$15</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!$A$12:$I$13</definedName>
@@ -72,11 +73,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -568,53 +569,53 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +774,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -808,7 +808,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -984,16 +983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
@@ -1007,19 +1006,19 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="2:11" ht="27" customHeight="1">
+      <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="2:11" ht="14.25" customHeight="1">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1029,7 +1028,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1044,7 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1061,7 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
@@ -1084,40 +1083,40 @@
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+    <row r="7" spans="2:11" ht="9" customHeight="1"/>
+    <row r="8" spans="2:11" ht="18" customHeight="1">
+      <c r="B8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="21" customHeight="1">
+      <c r="B9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="2:11" ht="12.75" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1127,30 +1126,30 @@
       <c r="H10" s="9"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="e">
+    <row r="11" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B11" s="39" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="12.75" customHeight="1">
       <c r="B12" s="17" t="e">
         <f>MatOutDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="42" t="e">
+      <c r="C12" s="34" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="27" t="e">
         <f>MatOutDet_MSRNAME</f>
         <v>#NAME?</v>
@@ -1168,7 +1167,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="12.75" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>2</v>
@@ -1182,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1192,21 +1191,21 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+    <row r="15" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="12.75" customHeight="1">
       <c r="B16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1217,6 +1216,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
@@ -1224,9 +1226,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B11:H11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/MatOutShort(2).xlsx
+++ b/SP_Sklad/TempLate/MatOutShort(2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB931F27-DC3C-46ED-BD50-2C9815141309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="780" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,18 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,11 +90,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -504,19 +521,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,17 +540,17 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -548,34 +564,42 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,12 +607,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +713,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -742,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,9 +795,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,6 +847,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -983,16 +1040,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
@@ -1006,219 +1063,217 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27" customHeight="1">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="20" t="e">
+      <c r="D3" s="19" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="e">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="2:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20" t="e">
+      <c r="D5" s="19" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="18" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="20" t="e">
+      <c r="C6" s="24"/>
+      <c r="D6" s="19" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:11" ht="9" customHeight="1"/>
-    <row r="8" spans="2:11" ht="18" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="21" customHeight="1">
-      <c r="B9" s="43"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B11" s="39" t="e">
+    <row r="9" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="42"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B12" s="17" t="e">
-        <f>MatOutDet_BARCODE</f>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="e">
+        <f>MatOutDet_MatId</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="34" t="e">
+      <c r="C12" s="35" t="e">
         <f>MatOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="27" t="e">
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="26" t="e">
         <f>MatOutDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="15" t="e">
+      <c r="G12" s="14" t="e">
         <f>MatOutDet_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="16" t="e">
+      <c r="H12" s="15" t="e">
         <f>IF(G12&gt;0,I12/G12," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="29" t="e">
+      <c r="I12" s="28" t="e">
         <f>MatOutDet_SUMPRICE</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="30" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B15" s="37" t="s">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="32" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="12.75" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B11:H11"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
